--- a/Docs/Curves/xyz-matching-functions.xlsx
+++ b/Docs/Curves/xyz-matching-functions.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="vertical" sheetId="1" r:id="rId1"/>
     <sheet name="transpose" sheetId="4" r:id="rId2"/>
+    <sheet name="nvidia formulas" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -28,11 +29,44 @@
   <si>
     <t>lamba</t>
   </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>x-param-1</t>
+  </si>
+  <si>
+    <t>x-param-2</t>
+  </si>
+  <si>
+    <t>x-param-3</t>
+  </si>
+  <si>
+    <t>y-param-1</t>
+  </si>
+  <si>
+    <t>y-param-2</t>
+  </si>
+  <si>
+    <t>z-param-1</t>
+  </si>
+  <si>
+    <t>z-param-2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,12 +103,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1830,11 +1866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42487808"/>
-        <c:axId val="42469632"/>
+        <c:axId val="68854528"/>
+        <c:axId val="68856064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42487808"/>
+        <c:axId val="68854528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,12 +1880,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42469632"/>
+        <c:crossAx val="68856064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42469632"/>
+        <c:axId val="68856064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1896,1790 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42487808"/>
+        <c:crossAx val="68854528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nvidia formulas'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'nvidia formulas'!$B$2:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'nvidia formulas'!$N$2:$N$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>7.4929117003927408E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5173416947200776E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4991544893247755E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7989325647143389E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0353514902462391E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4816576272339478E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8727180832361593E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9089741048371147E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1674465044809247E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5188857635337743E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9306338497599682E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7562184061747608E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14107316123671221</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20619370965966499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27339309010349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32880149141790538</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35860065901128702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35849194152118458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34375002796377574</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31728521309460467</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28120983097812025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23833296471132409</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19183216533509215</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14496879256097212</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10087664893663909</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.2409751227693155E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.201220964991839E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1584264070840913E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3552597470585801E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.351727309861303E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6480184108821939E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8426975909855499E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9841362788331932E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.11035711554123546</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15960658713035328</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.21718884440591191</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28259686465191514</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35511625009651682</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43371467213236936</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51694532662138781</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60288764670001027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68914405689755409</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.77290345047317388</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85107188150489865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92046051603176704</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.97801188121321248</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0210391985967395</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0474508992835472</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0559262692943967</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0411847109084451</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0002049114727773</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93609524044089709</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.85353701936539206</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.75822248006543869</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6562106303082047</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55330212955343627</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.4545210232545146</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.36376272999406745</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28363187338080842</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.21545892196414829</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.15945808765907593</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.11497442378143685</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.0765996191174319E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5274966636859491E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6855393012671371E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3941217219167161E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5151793055417232E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.3423139093452082E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.6119979584816748E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.2843783119053029E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8726709334521573E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0402611667120734E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.6298383611276461E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9683977123926583E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.524828052830752E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.6311902519527518E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.7207998717311479E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7674737186470132E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.1797916321533919E-6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6881123262192519E-6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6200882084919243E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9333928035840174E-7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.8908500980434551E-7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1742970290875581E-7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.6473242479929695E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7918457044825538E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.7308648119277516E-9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4632798183390629E-9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.7827243453873452E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nvidia formulas'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'nvidia formulas'!$B$2:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'nvidia formulas'!$O$2:$O$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>4.1613186975340358E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6446581997944027E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0490312776939901E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6374888521331508E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.527216161851356E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8563864827184712E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8182561464250704E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.679190992042249E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2800878554606761E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8666995923386377E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6914307587138113E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8367730758001768E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4078313746207564E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5362326940578584E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0383879010947292E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4146181664307545E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9054328813013159E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5376094477837067E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3414799531508076E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3506550812104881E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6017438531931925E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1346083632105484E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9943955130487682E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11237525712448755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13944221145672986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17238145729395224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21306878872894547</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26405065368359382</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32811675536312651</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40718380121080011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50061090898318839</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60364548219235614</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70711337765664362</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7991975402284448</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86905172801049269</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91708579118136901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95416943907731988</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97999381543674691</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.994462468844167</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9979280262656236</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99108163947731143</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97483260191064902</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95010645680451278</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9157805676584877</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.87213379050532147</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.82055573392065351</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76258672265023186</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.69987678097925043</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.6341359279753237</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56707483839642303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5003385394021016</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.43543873143009476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37369181431639437</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3161695226872458</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26366743954501598</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.21669408921137734</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1754804581862334</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.14000724788100802</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.11004534326898177</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.5204077016220528E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.4981858437182557E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8814443822016017E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6117290209222171E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.6319786494455714E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8890460768474858E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3353356060644545E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.2965595978955554E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.3743430494247744E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3045540245624184E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.8628542261229443E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8752010355135779E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2096881401825281E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.6855623298171106E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.8089945607455699E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9635290494504072E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.798623512694136E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0750965361212982E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.3289365578132636E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.6693579889726816E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0951999554539473E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.178248539903807E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.5256590942992162E-6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.5594909192893856E-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9121740950535353E-6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0116796270257484E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2715048559457474E-7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7052178833834481E-7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3672436680032647E-7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.8055875263798003E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'nvidia formulas'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'nvidia formulas'!$B$2:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'nvidia formulas'!$P$2:$P$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>4.7701746127999965E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7530332521142524E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9216431053628192E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6493533028073809E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6850410766249946E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1843508464757234E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0444052841848935E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4957565228467498E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0785994910504688E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10989647883271014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20506110783135761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37838601057281807</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65430199927399002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0169286279412841</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3868227505422199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6441215824894586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7339135700731489</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7761983846982077</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7813850393059028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7467562580292109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6712173639319907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5184400837323118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2944733928112899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0440589563318641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80934717112864984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61484457485254995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46552538598462168</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35428887417831756</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27076313304227401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20645864072839659</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15596246665979799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11613004862714002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4991431046892538E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.1058145879075418E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3035502499600552E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9754258384332238E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0178454143925249E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3422620711553555E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.757821094157462E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6048484436421724E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5183633124598523E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1663393617935628E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3083420343359806E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.7504174465217301E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5033727046969263E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5666088295127809E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4347970433186959E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8673823740378382E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.2313508796912072E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2322190914992563E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1550574684568099E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.8624528551210528E-6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9185297872617804E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4251411934993843E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.8259114979287463E-7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2068039436514805E-7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4777234365614339E-7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.6791763427169324E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9611585031324308E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.287684285855169E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.4924502693460365E-9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2979039261333558E-9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.4298893612926157E-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7956863995747625E-10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4985907461702342E-10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8034302023830893E-11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2044257782124376E-11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.2132528425414243E-12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0015383780972304E-12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.07592402437954E-12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.78293000484681E-13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3046199116722368E-13</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.4131500694171594E-14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4642741162998621E-14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.7654626649343994E-15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5212365576805313E-15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.7631848084206316E-16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4628746260852909E-16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.406824732883618E-17</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.302127304218611E-17</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7738975786221242E-18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0728420062129135E-18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.9915097733790437E-19</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.1818983342014193E-20</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1949605943071187E-20</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.775749819652391E-21</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4907300805218008E-21</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7739718193756742E-22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.371460677751503E-23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214825216"/>
+        <c:axId val="214843392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214825216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214843392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214843392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214825216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1896,6 +3715,41 @@
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2207,7 +4061,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E90" sqref="A1:E90"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,10 +5602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL5"/>
+  <dimension ref="A1:CL41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,7 +6967,4472 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:90" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4">
+        <v>11</v>
+      </c>
+      <c r="N9" s="4">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4">
+        <v>13</v>
+      </c>
+      <c r="P9" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4">
+        <v>16</v>
+      </c>
+      <c r="S9" s="4">
+        <v>17</v>
+      </c>
+      <c r="T9" s="4">
+        <v>18</v>
+      </c>
+      <c r="U9" s="4">
+        <v>19</v>
+      </c>
+      <c r="V9" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>361.85567010309279</v>
+      </c>
+      <c r="C10" s="4">
+        <v>383.50515463917526</v>
+      </c>
+      <c r="D10" s="4">
+        <v>405.15463917525773</v>
+      </c>
+      <c r="E10" s="4">
+        <v>426.8041237113402</v>
+      </c>
+      <c r="F10" s="4">
+        <v>448.45360824742266</v>
+      </c>
+      <c r="G10" s="4">
+        <v>470.10309278350519</v>
+      </c>
+      <c r="H10" s="4">
+        <v>491.75257731958766</v>
+      </c>
+      <c r="I10" s="4">
+        <v>513.40206185567013</v>
+      </c>
+      <c r="J10" s="4">
+        <v>535.05154639175259</v>
+      </c>
+      <c r="K10" s="4">
+        <v>556.70103092783506</v>
+      </c>
+      <c r="L10" s="4">
+        <v>578.35051546391753</v>
+      </c>
+      <c r="M10" s="4">
+        <v>600</v>
+      </c>
+      <c r="N10" s="4">
+        <v>621.64948453608247</v>
+      </c>
+      <c r="O10" s="4">
+        <v>643.29896907216494</v>
+      </c>
+      <c r="P10" s="4">
+        <v>664.94845360824741</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>686.59793814432987</v>
+      </c>
+      <c r="R10" s="4">
+        <v>708.24742268041246</v>
+      </c>
+      <c r="S10" s="4">
+        <v>729.89690721649481</v>
+      </c>
+      <c r="T10" s="4">
+        <v>751.54639175257739</v>
+      </c>
+      <c r="U10" s="4">
+        <v>773.19587628865975</v>
+      </c>
+      <c r="V10" s="4">
+        <v>794.84536082474233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.3451238348390995E-6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.6314693711256344E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.575511594613691E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.23086736416042122</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.34963547426308383</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.1908584697796481</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.3638828744004574E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.036622755221919E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.21782424288811711</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.54598970279762771</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.89873331791006006</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.0559262692943967</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.82320741591236335</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.39354972842347435</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.11537810797992082</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2.0743471151246917E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2.2870396774107324E-3</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1.5463230015408432E-4</v>
+      </c>
+      <c r="T11" s="3">
+        <v>6.4115197203944047E-6</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1.6302567166576535E-7</v>
+      </c>
+      <c r="V11" s="3">
+        <v>2.5420568769439531E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.9571916461377961E-5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.4027067045260781E-4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.888265048999064E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8.4713191478562513E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.0725588255346513E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9.0365513055816041E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.22962128259108247</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.57015192084641264</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.91752390014029428</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.99671398035690228</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.88748091986574262</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.6341359279753237</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.35420360402147127</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.15144156372921619</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4.896241207285517E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1.1913762710001084E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2.1787600197033319E-3</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2.9937188905645307E-4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3.0905103453674714E-5</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2.3969755519380043E-6</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1.3967248013124575E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.2472337113960667E-4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.0014099553852381E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.11200034671829542</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.1555397701091339</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.7839595686535503</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.2894136948601176</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.42273442181613835</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.12783465826256846</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.9638289810620437E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4.7941105054857278E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.3982232177091311E-4</v>
+      </c>
+      <c r="M13" s="3">
+        <v>4.2313508796912072E-5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2.3088336524122852E-6</v>
+      </c>
+      <c r="O13" s="3">
+        <v>8.769839591965497E-8</v>
+      </c>
+      <c r="P13" s="3">
+        <v>2.318868163505933E-9</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>4.2682108802515279E-11</v>
+      </c>
+      <c r="R13" s="3">
+        <v>5.4689138398488195E-13</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4.8779988812652566E-15</v>
+      </c>
+      <c r="T13" s="3">
+        <v>3.0287798943825876E-17</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.3091190217792603E-19</v>
+      </c>
+      <c r="V13" s="3">
+        <v>3.938909069675296E-22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="2.140625" customWidth="1"/>
+    <col min="4" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>360</v>
+      </c>
+      <c r="D2">
+        <f>(B2-442)*IF(B2 &lt; 442,0.0624,0.0374)</f>
+        <v>-5.1167999999999996</v>
+      </c>
+      <c r="E2">
+        <f>(B2-599.8)*IF(B2 &lt; 599.8,0.0264,0.0323)</f>
+        <v>-6.3307199999999986</v>
+      </c>
+      <c r="F2">
+        <f>(B2-501.1)*IF(B2 &lt; 501.1,0.049,0.0382)</f>
+        <v>-6.9139000000000017</v>
+      </c>
+      <c r="H2">
+        <f>(B2-568.8)*IF(B2 &lt; 568.8,0.0213,0.0247)</f>
+        <v>-4.4474399999999985</v>
+      </c>
+      <c r="I2">
+        <f>(B2-530.9)*IF(B2 &lt; 530.9,0.0613,0.0322)</f>
+        <v>-10.476169999999998</v>
+      </c>
+      <c r="K2">
+        <f>(B2-437)*IF(B2 &lt; 437,0.0845,0.0278)</f>
+        <v>-6.5065000000000008</v>
+      </c>
+      <c r="L2">
+        <f>(B2-459)*IF(B2 &lt; 459,0.0385,0.0725)</f>
+        <v>-3.8115000000000001</v>
+      </c>
+      <c r="N2">
+        <f>0.362*EXP(-0.5*D2*D2) + 1.056*EXP(-0.5*E2*E2) - 0.065*EXP(-0.5*F2*F2)</f>
+        <v>7.4929117003927408E-7</v>
+      </c>
+      <c r="O2">
+        <f>0.821*EXP(-0.5*H2*H2) + 0.286*EXP(-0.5*I2*I2)</f>
+        <v>4.1613186975340358E-5</v>
+      </c>
+      <c r="P2">
+        <f>1.217*EXP(-0.5*K2*K2) + 0.681*EXP(-0.5*L2*L2)</f>
+        <v>4.7701746127999965E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>365</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">(B3-442)*IF(B3 &lt; 442,0.0624,0.0374)</f>
+        <v>-4.8048000000000002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">(B3-599.8)*IF(B3 &lt; 599.8,0.0264,0.0323)</f>
+        <v>-6.1987199999999989</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">(B3-501.1)*IF(B3 &lt; 501.1,0.049,0.0382)</f>
+        <v>-6.6689000000000016</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">(B3-568.8)*IF(B3 &lt; 568.8,0.0213,0.0247)</f>
+        <v>-4.3409399999999989</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="4">(B3-530.9)*IF(B3 &lt; 530.9,0.0613,0.0322)</f>
+        <v>-10.169669999999998</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="5">(B3-437)*IF(B3 &lt; 437,0.0845,0.0278)</f>
+        <v>-6.0840000000000005</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="6">(B3-459)*IF(B3 &lt; 459,0.0385,0.0725)</f>
+        <v>-3.6189999999999998</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="7">0.362*EXP(-0.5*D3*D3) + 1.056*EXP(-0.5*E3*E3) - 0.065*EXP(-0.5*F3*F3)</f>
+        <v>3.5173416947200776E-6</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="8">0.821*EXP(-0.5*H3*H3) + 0.286*EXP(-0.5*I3*I3)</f>
+        <v>6.6446581997944027E-5</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="9">1.217*EXP(-0.5*K3*K3) + 0.681*EXP(-0.5*L3*L3)</f>
+        <v>9.7530332521142524E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>370</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-4.4927999999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-6.0667199999999983</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-6.4239000000000015</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>-4.2344399999999993</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>-9.8631699999999984</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>-5.6615000000000002</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>-3.4264999999999999</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>1.4991544893247755E-5</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>1.0490312776939901E-4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="9"/>
+        <v>1.9216431053628192E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>375</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-4.1807999999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-5.9347199999999987</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-6.1789000000000014</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-4.1279399999999988</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>-9.5566699999999987</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>-5.2390000000000008</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>-3.234</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>5.7989325647143389E-5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>1.6374888521331508E-4</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="9"/>
+        <v>3.6493533028073809E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>380</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-3.8687999999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-5.802719999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-5.9339000000000013</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-4.0214399999999992</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>-9.2501699999999989</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>-4.8165000000000004</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>-3.0415000000000001</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>2.0353514902462391E-4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>2.527216161851356E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="9"/>
+        <v>6.6850410766249946E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>385</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-3.5568</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-5.6707199999999984</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-5.6889000000000012</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-3.9149399999999988</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>-8.9436699999999991</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>-4.3940000000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>-2.8489999999999998</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>6.4816576272339478E-4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>3.8563864827184712E-4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>1.1843508464757234E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>390</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-3.2447999999999997</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-5.5387199999999988</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-5.4439000000000011</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-3.8084399999999992</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>-8.6371699999999993</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>-3.9715000000000003</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>-2.6564999999999999</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>1.8727180832361593E-3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>5.8182561464250704E-4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>2.0444052841848935E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>395</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-2.9327999999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-5.4067199999999991</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-5.198900000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-3.7019399999999991</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>-8.3306699999999978</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>-3.5490000000000004</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>-2.464</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>4.9089741048371147E-3</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>8.679190992042249E-4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>3.4957565228467498E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-2.6208</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-5.2747199999999985</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-4.9539000000000017</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-3.5954399999999991</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-8.024169999999998</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>-3.1265000000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>-2.2715000000000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>1.1674465044809247E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>1.2800878554606761E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>6.0785994910504688E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>405</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-2.3087999999999997</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-5.1427199999999988</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>-4.7089000000000016</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-3.488939999999999</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-7.7176699999999983</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>-2.7040000000000002</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>-2.0790000000000002</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>2.5188857635337743E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>1.8666995923386377E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>0.10989647883271014</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>410</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-1.9967999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-5.0107199999999992</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-4.4639000000000015</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-3.382439999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>-7.4111699999999985</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>-2.2815000000000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>-1.8865000000000001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>4.9306338497599682E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>2.6914307587138113E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="9"/>
+        <v>0.20506110783135761</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>415</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-1.6847999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-4.8787199999999986</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-4.2189000000000014</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-3.275939999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>-7.1046699999999987</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>-1.8590000000000002</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>-1.694</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>8.7562184061747608E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>3.8367730758001768E-3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="9"/>
+        <v>0.37838601057281807</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>420</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-1.3728</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-4.7467199999999989</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-3.9739000000000013</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-3.1694399999999989</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>-6.7981699999999989</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>-1.4365000000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>-1.5015000000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>0.14107316123671221</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>5.4078313746207564E-3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>0.65430199927399002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>425</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-1.0608</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-4.6147199999999984</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-3.7289000000000012</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-3.0629399999999989</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>-6.4916699999999983</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>-1.014</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>-1.3089999999999999</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>0.20619370965966499</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>7.5362326940578584E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>1.0169286279412841</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>430</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.74879999999999991</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-4.4827199999999987</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-3.4839000000000011</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-2.9564399999999988</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>-6.1851699999999985</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>-0.59150000000000003</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>-1.1165</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>0.27339309010349</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>1.0383879010947292E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>1.3868227505422199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>435</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.43679999999999997</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-4.350719999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-3.2389000000000014</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-2.8499399999999988</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>-5.8786699999999987</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>-0.92399999999999993</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>0.32880149141790538</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>1.4146181664307545E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>1.6441215824894586</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>440</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.12479999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-4.2187199999999985</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-2.9939000000000013</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-2.7434399999999988</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>-5.572169999999999</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>-0.73150000000000004</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>0.35860065901128702</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>1.9054328813013159E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>1.7339135700731489</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>445</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.11220000000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-4.0867199999999988</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-2.7489000000000012</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-2.6369399999999992</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>-5.2656699999999983</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>-0.53900000000000003</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>0.35849194152118458</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>2.5376094477837067E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>1.7761983846982077</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>450</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-3.9547199999999987</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-2.5039000000000011</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-2.5304399999999991</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>-4.9591699999999985</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0.3614</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>-0.34649999999999997</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>0.34375002796377574</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
+        <v>3.3414799531508076E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>1.7813850393059028</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>455</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-3.8227199999999986</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-2.258900000000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>-2.4239399999999991</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>-4.6526699999999988</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>-0.154</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>0.31728521309460467</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
+        <v>4.3506550812104881E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="9"/>
+        <v>1.7467562580292109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>460</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-3.6907199999999989</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>-2.0139000000000014</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>-2.3174399999999991</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>-4.346169999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>0.28120983097812025</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>5.6017438531931925E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="9"/>
+        <v>1.6712173639319907</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>465</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.86020000000000008</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-3.5587199999999988</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-1.7689000000000012</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>-2.210939999999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>-4.0396699999999983</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>0.43499999999999994</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>0.23833296471132409</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>7.1346083632105484E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="9"/>
+        <v>1.5184400837323118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>470</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.0472000000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-3.4267199999999987</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-1.5239000000000011</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-2.104439999999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>-3.7331699999999985</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>0.19183216533509215</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>8.9943955130487682E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="9"/>
+        <v>1.2944733928112899</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>475</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.2342000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-3.294719999999999</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-1.2789000000000013</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>-1.9979399999999989</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>-3.4266699999999988</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>1.0564</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>0.14496879256097212</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>0.11237525712448755</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="9"/>
+        <v>1.0440589563318641</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>480</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.4212</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-3.1627199999999989</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-1.0339000000000012</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-1.8914399999999989</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>-3.1201699999999986</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>1.1954</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>1.5225</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>0.10087664893663909</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>0.13944221145672986</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="9"/>
+        <v>0.80934717112864984</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>485</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.6082000000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>-3.0307199999999987</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-0.78890000000000116</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-1.7849399999999991</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>-2.8136699999999988</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>1.3344</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>1.8849999999999998</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>6.2409751227693155E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
+        <v>0.17238145729395224</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="9"/>
+        <v>0.61484457485254995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>490</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.7952000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>-2.8987199999999986</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>-0.54390000000000116</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>-1.678439999999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>-2.5071699999999986</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>1.4733999999999998</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>2.2475000000000001</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>3.201220964991839E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>0.21306878872894547</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="9"/>
+        <v>0.46552538598462168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>495</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.9822000000000002</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>-2.766719999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-0.29890000000000111</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>-1.571939999999999</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>-2.2006699999999988</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>1.6123999999999998</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>2.61</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>1.1584264070840913E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>0.26405065368359382</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="9"/>
+        <v>0.35428887417831756</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2.1692</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>-2.6347199999999988</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-5.3900000000001114E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>-1.465439999999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>-1.8941699999999986</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>1.7513999999999998</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>2.9724999999999997</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>2.3552597470585801E-3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>0.32811675536312651</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="9"/>
+        <v>0.27076313304227401</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>505</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.3562000000000003</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>-2.5027199999999987</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.14897999999999911</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>-1.3589399999999989</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>-1.5876699999999986</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>1.8903999999999999</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>3.335</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>4.351727309861303E-3</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>0.40718380121080011</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="9"/>
+        <v>0.20645864072839659</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>510</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.5432000000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>-2.3707199999999986</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.33997999999999912</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>-1.2524399999999991</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>-1.2811699999999986</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>2.0293999999999999</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>3.6974999999999998</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>1.6480184108821939E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>0.50061090898318839</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>0.15596246665979799</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>515</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.7302000000000004</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>-2.2387199999999989</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.53097999999999912</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>-1.1459399999999991</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>-0.97466999999999859</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>2.1683999999999997</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>3.8426975909855499E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>0.60364548219235614</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="9"/>
+        <v>0.11613004862714002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>520</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.9172000000000002</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>-2.1067199999999988</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.72197999999999907</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>-1.039439999999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>-0.6681699999999986</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>2.3073999999999999</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>4.4224999999999994</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>6.9841362788331932E-2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>0.70711337765664362</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>8.4991431046892538E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>525</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>3.1042000000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>-1.9747199999999987</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.91297999999999913</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>-0.93293999999999899</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>-0.3616699999999986</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>2.4463999999999997</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>4.7849999999999993</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>0.11035711554123546</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>0.7991975402284448</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>6.1058145879075418E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>530</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>3.2912000000000003</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>-1.8427199999999988</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.1039799999999991</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>-0.82643999999999906</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>-5.5169999999998609E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>2.5853999999999999</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>5.1475</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>0.15960658713035328</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>0.86905172801049269</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>4.3035502499600552E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>535</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>3.4782000000000002</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>-1.7107199999999987</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1.2949799999999991</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>-0.71993999999999903</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0.13202000000000072</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>2.7243999999999997</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>5.51</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>0.21718884440591191</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>0.91708579118136901</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>2.9754258384332238E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>540</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>3.6652000000000005</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>-1.5787199999999988</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>1.485979999999999</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>-0.61343999999999899</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.29302000000000072</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>2.8633999999999999</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>5.8724999999999996</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>0.28259686465191514</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>0.95416943907731988</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>2.0178454143925249E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>545</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>3.8522000000000003</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>-1.4467199999999989</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>1.676979999999999</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>-0.50693999999999906</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0.4540200000000007</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>3.0023999999999997</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>6.2349999999999994</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>0.35511625009651682</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>0.97999381543674691</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>1.3422620711553555E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>550</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>4.0392000000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>-1.3147199999999988</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1.8679799999999991</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>-0.40043999999999902</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>0.61502000000000068</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>3.1414</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>6.5974999999999993</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>0.43371467213236936</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>0.994462468844167</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="9"/>
+        <v>8.757821094157462E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>555</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>4.2262000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>-1.1827199999999989</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>2.0589799999999991</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>-0.29393999999999904</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0.77602000000000071</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>3.2803999999999998</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>6.9599999999999991</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>0.51694532662138781</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>0.9979280262656236</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="9"/>
+        <v>5.6048484436421724E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>560</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>4.4132000000000007</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>-1.0507199999999988</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>2.249979999999999</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>-0.18743999999999902</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>0.93702000000000074</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>3.4194</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>7.3224999999999998</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>0.60288764670001027</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>0.99108163947731143</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="9"/>
+        <v>3.5183633124598523E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>565</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>4.6002000000000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>-0.91871999999999876</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>2.4409799999999988</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>-8.0939999999999027E-2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>1.0980200000000007</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>3.5583999999999998</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>7.6849999999999996</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>0.68914405689755409</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>0.97483260191064902</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="9"/>
+        <v>2.1663393617935628E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>570</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>4.7872000000000003</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>-0.78671999999999875</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>2.6319799999999991</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>2.9640000000001124E-2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>1.2590200000000007</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>3.6973999999999996</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>8.0474999999999994</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>0.77290345047317388</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>0.95010645680451278</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="9"/>
+        <v>1.3083420343359806E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>575</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>4.9742000000000006</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>-0.65471999999999875</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>2.8229799999999989</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>0.15314000000000111</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>1.4200200000000007</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>3.8363999999999998</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>8.41</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>0.85107188150489865</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>0.9157805676584877</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="9"/>
+        <v>7.7504174465217301E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>580</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>5.1612</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>-0.52271999999999874</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>3.0139799999999988</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>0.27664000000000111</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>1.5810200000000008</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>3.9753999999999996</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>8.7724999999999991</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
+        <v>0.92046051603176704</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>0.87213379050532147</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="9"/>
+        <v>4.5033727046969263E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>585</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>5.3482000000000003</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>-0.39071999999999879</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>3.2049799999999991</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>0.40014000000000111</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>1.7420200000000008</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>4.1143999999999998</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>9.1349999999999998</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0.97801188121321248</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>0.82055573392065351</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="9"/>
+        <v>2.5666088295127809E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>590</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>5.5352000000000006</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>-0.25871999999999878</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>3.3959799999999989</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>0.5236400000000011</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>1.9030200000000006</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>4.2534000000000001</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>9.4974999999999987</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>1.0210391985967395</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>0.76258672265023186</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="9"/>
+        <v>1.4347970433186959E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>595</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>5.7222000000000008</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>-0.12671999999999881</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>3.5869799999999987</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>0.64714000000000116</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>2.0640200000000006</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>4.3923999999999994</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>9.86</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>1.0474508992835472</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>0.69987678097925043</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="9"/>
+        <v>7.8673823740378382E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>600</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>5.9092000000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>6.4600000000014689E-3</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>3.777979999999999</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>0.7706400000000011</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>2.2250200000000007</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>4.5313999999999997</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>10.2225</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>1.0559262692943967</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
+        <v>0.6341359279753237</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="9"/>
+        <v>4.2313508796912072E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>605</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>6.0962000000000005</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0.16796000000000147</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>3.9689799999999988</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0.89414000000000116</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>2.3860200000000007</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>4.6703999999999999</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>10.584999999999999</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>1.0411847109084451</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="8"/>
+        <v>0.56707483839642303</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="9"/>
+        <v>2.2322190914992563E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>610</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>6.2832000000000008</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0.32946000000000147</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>4.1599799999999991</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>1.0176400000000012</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>2.5470200000000007</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>4.8094000000000001</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="6"/>
+        <v>10.9475</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
+        <v>1.0002049114727773</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="8"/>
+        <v>0.5003385394021016</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="9"/>
+        <v>1.1550574684568099E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>615</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>6.4702000000000002</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0.49096000000000151</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>4.350979999999999</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>1.1411400000000012</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>2.7080200000000008</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>4.9483999999999995</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="6"/>
+        <v>11.309999999999999</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="7"/>
+        <v>0.93609524044089709</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="8"/>
+        <v>0.43543873143009476</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="9"/>
+        <v>5.8624528551210528E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>620</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>6.6572000000000005</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0.65246000000000148</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>4.5419799999999988</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>1.2646400000000011</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>2.8690200000000008</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>5.0873999999999997</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="6"/>
+        <v>11.672499999999999</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="7"/>
+        <v>0.85353701936539206</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="8"/>
+        <v>0.37369181431639437</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="9"/>
+        <v>2.9185297872617804E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>625</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>6.8442000000000007</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0.81396000000000157</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>4.7329799999999986</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>1.388140000000001</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>3.0300200000000008</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>5.2263999999999999</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="6"/>
+        <v>12.034999999999998</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="7"/>
+        <v>0.75822248006543869</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="8"/>
+        <v>0.3161695226872458</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="9"/>
+        <v>1.4251411934993843E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>630</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>7.0312000000000001</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0.97546000000000155</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>4.9239799999999985</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>1.5116400000000012</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>3.1910200000000009</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>5.3653999999999993</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="6"/>
+        <v>12.397499999999999</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="7"/>
+        <v>0.6562106303082047</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="8"/>
+        <v>0.26366743954501598</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="9"/>
+        <v>6.8259114979287463E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>635</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>7.2182000000000004</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>1.1369600000000015</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>5.1149799999999992</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>1.6351400000000011</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>3.3520200000000009</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>5.5043999999999995</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="6"/>
+        <v>12.76</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="7"/>
+        <v>0.55330212955343627</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="8"/>
+        <v>0.21669408921137734</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="9"/>
+        <v>3.2068039436514805E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>640</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>7.4052000000000007</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>1.2984600000000015</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>5.305979999999999</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>1.7586400000000011</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>3.5130200000000005</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>5.6433999999999997</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="6"/>
+        <v>13.122499999999999</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="7"/>
+        <v>0.4545210232545146</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="8"/>
+        <v>0.1754804581862334</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="9"/>
+        <v>1.4777234365614339E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>645</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>7.5922000000000009</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>1.4599600000000015</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>5.4969799999999989</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>1.882140000000001</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>3.6740200000000005</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>5.7824</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="6"/>
+        <v>13.484999999999999</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="7"/>
+        <v>0.36376272999406745</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="8"/>
+        <v>0.14000724788100802</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="9"/>
+        <v>6.6791763427169324E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>650</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>7.7792000000000003</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>1.6214600000000017</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>5.6879799999999987</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>2.005640000000001</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>3.8350200000000005</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>5.9213999999999993</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="6"/>
+        <v>13.847499999999998</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="7"/>
+        <v>0.28363187338080842</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="8"/>
+        <v>0.11004534326898177</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="9"/>
+        <v>2.9611585031324308E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>655</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>7.9662000000000006</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>1.7829600000000017</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>5.8789799999999985</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>2.1291400000000009</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>3.9960200000000006</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>6.0603999999999996</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="6"/>
+        <v>14.209999999999999</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="7"/>
+        <v>0.21545892196414829</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="8"/>
+        <v>8.5204077016220528E-2</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="9"/>
+        <v>1.287684285855169E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>660</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>8.1532</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>1.9444600000000016</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>6.0699799999999984</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>2.2526400000000013</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>4.157020000000001</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>6.1993999999999998</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="6"/>
+        <v>14.5725</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="7"/>
+        <v>0.15945808765907593</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="8"/>
+        <v>6.4981858437182557E-2</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="9"/>
+        <v>5.4924502693460365E-9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>665</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>8.3402000000000012</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>2.1059600000000018</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>6.2609799999999991</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>2.3761400000000013</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>4.3180200000000006</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>6.3384</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="6"/>
+        <v>14.934999999999999</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="7"/>
+        <v>0.11497442378143685</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="8"/>
+        <v>4.8814443822016017E-2</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="9"/>
+        <v>2.2979039261333558E-9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>670</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>8.5272000000000006</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>2.2674600000000016</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>6.4519799999999989</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>2.4996400000000012</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>4.4790200000000002</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>6.4773999999999994</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="6"/>
+        <v>15.297499999999999</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="7"/>
+        <v>8.0765996191174319E-2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="8"/>
+        <v>3.6117290209222171E-2</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="9"/>
+        <v>9.4298893612926157E-10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>675</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>8.7141999999999999</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>2.4289600000000018</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>6.6429799999999988</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>2.6231400000000011</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>4.6400200000000007</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>6.6163999999999996</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="6"/>
+        <v>15.659999999999998</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="7"/>
+        <v>5.5274966636859491E-2</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="8"/>
+        <v>2.6319786494455714E-2</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="9"/>
+        <v>3.7956863995747625E-10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>680</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>8.9012000000000011</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>2.5904600000000015</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>6.8339799999999986</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>2.7466400000000011</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>4.8010200000000003</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>6.7553999999999998</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="6"/>
+        <v>16.022499999999997</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="7"/>
+        <v>3.6855393012671371E-2</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="8"/>
+        <v>1.8890460768474858E-2</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="9"/>
+        <v>1.4985907461702342E-10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>685</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D90" si="10">(B67-442)*IF(B67 &lt; 442,0.0624,0.0374)</f>
+        <v>9.0882000000000005</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E90" si="11">(B67-599.8)*IF(B67 &lt; 599.8,0.0264,0.0323)</f>
+        <v>2.7519600000000017</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F90" si="12">(B67-501.1)*IF(B67 &lt; 501.1,0.049,0.0382)</f>
+        <v>7.0249799999999984</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H90" si="13">(B67-568.8)*IF(B67 &lt; 568.8,0.0213,0.0247)</f>
+        <v>2.870140000000001</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I90" si="14">(B67-530.9)*IF(B67 &lt; 530.9,0.0613,0.0322)</f>
+        <v>4.9620200000000008</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K90" si="15">(B67-437)*IF(B67 &lt; 437,0.0845,0.0278)</f>
+        <v>6.8943999999999992</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L90" si="16">(B67-459)*IF(B67 &lt; 459,0.0385,0.0725)</f>
+        <v>16.384999999999998</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N90" si="17">0.362*EXP(-0.5*D67*D67) + 1.056*EXP(-0.5*E67*E67) - 0.065*EXP(-0.5*F67*F67)</f>
+        <v>2.3941217219167161E-2</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O90" si="18">0.821*EXP(-0.5*H67*H67) + 0.286*EXP(-0.5*I67*I67)</f>
+        <v>1.3353356060644545E-2</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P90" si="19">1.217*EXP(-0.5*K67*K67) + 0.681*EXP(-0.5*L67*L67)</f>
+        <v>5.8034302023830893E-11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>690</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="10"/>
+        <v>9.2751999999999999</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>2.9134600000000015</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="12"/>
+        <v>7.2159799999999983</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="13"/>
+        <v>2.993640000000001</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="14"/>
+        <v>5.1230200000000004</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="15"/>
+        <v>7.0333999999999994</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="16"/>
+        <v>16.747499999999999</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="17"/>
+        <v>1.5151793055417232E-2</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="18"/>
+        <v>9.2965595978955554E-3</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="19"/>
+        <v>2.2044257782124376E-11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>695</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>9.4622000000000011</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>3.0749600000000017</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="12"/>
+        <v>7.406979999999999</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="13"/>
+        <v>3.1171400000000009</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="14"/>
+        <v>5.2840200000000008</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="15"/>
+        <v>7.1723999999999997</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="16"/>
+        <v>17.11</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="17"/>
+        <v>9.3423139093452082E-3</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="18"/>
+        <v>6.3743430494247744E-3</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="19"/>
+        <v>8.2132528425414243E-12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>700</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="10"/>
+        <v>9.6492000000000004</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>3.2364600000000019</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="12"/>
+        <v>7.5979799999999988</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="13"/>
+        <v>3.2406400000000013</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="14"/>
+        <v>5.4450200000000004</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="15"/>
+        <v>7.3113999999999999</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="16"/>
+        <v>17.4725</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="17"/>
+        <v>5.6119979584816748E-3</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="18"/>
+        <v>4.3045540245624184E-3</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="19"/>
+        <v>3.0015383780972304E-12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>705</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="10"/>
+        <v>9.8361999999999998</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>3.3979600000000016</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="12"/>
+        <v>7.7889799999999987</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="13"/>
+        <v>3.3641400000000012</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="14"/>
+        <v>5.6060200000000009</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="15"/>
+        <v>7.4503999999999992</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="16"/>
+        <v>17.834999999999997</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="17"/>
+        <v>3.2843783119053029E-3</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="18"/>
+        <v>2.8628542261229443E-3</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="19"/>
+        <v>1.07592402437954E-12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>710</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>10.023200000000001</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>3.5594600000000018</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="12"/>
+        <v>7.9799799999999985</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="13"/>
+        <v>3.4876400000000012</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="14"/>
+        <v>5.7670200000000005</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="15"/>
+        <v>7.5893999999999995</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="16"/>
+        <v>18.197499999999998</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="17"/>
+        <v>1.8726709334521573E-3</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="18"/>
+        <v>1.8752010355135779E-3</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="19"/>
+        <v>3.78293000484681E-13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>715</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>10.2102</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>3.7209600000000016</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="12"/>
+        <v>8.1709799999999984</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="13"/>
+        <v>3.6111400000000011</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="14"/>
+        <v>5.928020000000001</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="15"/>
+        <v>7.7283999999999997</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="16"/>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="17"/>
+        <v>1.0402611667120734E-3</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="18"/>
+        <v>1.2096881401825281E-3</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="19"/>
+        <v>1.3046199116722368E-13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>720</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>10.397200000000002</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>3.8824600000000018</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="12"/>
+        <v>8.3619799999999991</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="13"/>
+        <v>3.7346400000000011</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="14"/>
+        <v>6.0890200000000005</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="15"/>
+        <v>7.8673999999999999</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="16"/>
+        <v>18.922499999999999</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="17"/>
+        <v>5.6298383611276461E-4</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="18"/>
+        <v>7.6855623298171106E-4</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="19"/>
+        <v>4.4131500694171594E-14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>725</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>10.584200000000001</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>4.043960000000002</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="12"/>
+        <v>8.552979999999998</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="13"/>
+        <v>3.858140000000001</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="14"/>
+        <v>6.250020000000001</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="15"/>
+        <v>8.0063999999999993</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="16"/>
+        <v>19.285</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="17"/>
+        <v>2.9683977123926583E-4</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="18"/>
+        <v>4.8089945607455699E-4</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="19"/>
+        <v>1.4642741162998621E-14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>730</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>10.7712</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>4.2054600000000022</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="12"/>
+        <v>8.7439799999999988</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="13"/>
+        <v>3.981640000000001</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="14"/>
+        <v>6.4110200000000006</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="15"/>
+        <v>8.1453999999999986</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="16"/>
+        <v>19.647499999999997</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="17"/>
+        <v>1.524828052830752E-4</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="18"/>
+        <v>2.9635290494504072E-4</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="19"/>
+        <v>4.7654626649343994E-15</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>735</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>10.958200000000001</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>4.3669600000000015</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="12"/>
+        <v>8.9349799999999995</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="13"/>
+        <v>4.1051400000000013</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="14"/>
+        <v>6.5720200000000002</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="15"/>
+        <v>8.2843999999999998</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="16"/>
+        <v>20.009999999999998</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="17"/>
+        <v>7.6311902519527518E-5</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="18"/>
+        <v>1.798623512694136E-4</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="19"/>
+        <v>1.5212365576805313E-15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>740</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>11.145200000000001</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>4.5284600000000017</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="12"/>
+        <v>9.1259799999999984</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="13"/>
+        <v>4.2286400000000013</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="14"/>
+        <v>6.7330200000000007</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="15"/>
+        <v>8.4233999999999991</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="16"/>
+        <v>20.372499999999999</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="17"/>
+        <v>3.7207998717311479E-5</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="18"/>
+        <v>1.0750965361212982E-4</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="19"/>
+        <v>4.7631848084206316E-16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>745</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>11.3322</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="11"/>
+        <v>4.6899600000000019</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="12"/>
+        <v>9.3169799999999992</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="13"/>
+        <v>4.3521400000000012</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="14"/>
+        <v>6.8940200000000003</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="15"/>
+        <v>8.5624000000000002</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="16"/>
+        <v>20.734999999999999</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="17"/>
+        <v>1.7674737186470132E-5</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="18"/>
+        <v>6.3289365578132636E-5</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="19"/>
+        <v>1.4628746260852909E-16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>750</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>11.519200000000001</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>4.8514600000000021</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="12"/>
+        <v>9.5079799999999981</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="13"/>
+        <v>4.4756400000000012</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="14"/>
+        <v>7.0550200000000007</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="15"/>
+        <v>8.7013999999999996</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="16"/>
+        <v>21.0975</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="17"/>
+        <v>8.1797916321533919E-6</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="18"/>
+        <v>3.6693579889726816E-5</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="19"/>
+        <v>4.406824732883618E-17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>755</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>11.706200000000001</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="11"/>
+        <v>5.0129600000000014</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="12"/>
+        <v>9.6989799999999988</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="13"/>
+        <v>4.5991400000000011</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="14"/>
+        <v>7.2160200000000003</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="15"/>
+        <v>8.8403999999999989</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="16"/>
+        <v>21.459999999999997</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="17"/>
+        <v>3.6881123262192519E-6</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="18"/>
+        <v>2.0951999554539473E-5</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="19"/>
+        <v>1.302127304218611E-17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>760</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>11.8932</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="11"/>
+        <v>5.1744600000000016</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="12"/>
+        <v>9.8899799999999978</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="13"/>
+        <v>4.7226400000000011</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="14"/>
+        <v>7.3770200000000008</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="15"/>
+        <v>8.9794</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="16"/>
+        <v>21.822499999999998</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="17"/>
+        <v>1.6200882084919243E-6</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="18"/>
+        <v>1.178248539903807E-5</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="19"/>
+        <v>3.7738975786221242E-18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>765</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>12.080200000000001</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="11"/>
+        <v>5.3359600000000018</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="12"/>
+        <v>10.080979999999998</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="13"/>
+        <v>4.846140000000001</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="14"/>
+        <v>7.5380200000000004</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="15"/>
+        <v>9.1183999999999994</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="16"/>
+        <v>22.184999999999999</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="17"/>
+        <v>6.9333928035840174E-7</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="18"/>
+        <v>6.5256590942992162E-6</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="19"/>
+        <v>1.0728420062129135E-18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>770</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>12.267200000000001</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="11"/>
+        <v>5.497460000000002</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="12"/>
+        <v>10.271979999999999</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="13"/>
+        <v>4.9696400000000009</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="14"/>
+        <v>7.6990200000000009</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="15"/>
+        <v>9.2573999999999987</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="16"/>
+        <v>22.547499999999999</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="17"/>
+        <v>2.8908500980434551E-7</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="18"/>
+        <v>3.5594909192893856E-6</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="19"/>
+        <v>2.9915097733790437E-19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>775</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>12.4542</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="11"/>
+        <v>5.6589600000000022</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="12"/>
+        <v>10.462979999999998</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="13"/>
+        <v>5.0931400000000009</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="14"/>
+        <v>7.8600200000000005</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="15"/>
+        <v>9.3963999999999999</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="16"/>
+        <v>22.91</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="17"/>
+        <v>1.1742970290875581E-7</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="18"/>
+        <v>1.9121740950535353E-6</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="19"/>
+        <v>8.1818983342014193E-20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>780</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>12.641200000000001</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="11"/>
+        <v>5.8204600000000015</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="12"/>
+        <v>10.653979999999999</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="13"/>
+        <v>5.2166400000000008</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="14"/>
+        <v>8.02102</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="15"/>
+        <v>9.5353999999999992</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="16"/>
+        <v>23.272499999999997</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="17"/>
+        <v>4.6473242479929695E-8</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="18"/>
+        <v>1.0116796270257484E-6</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="19"/>
+        <v>2.1949605943071187E-20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>785</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>12.828200000000001</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="11"/>
+        <v>5.9819600000000017</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="12"/>
+        <v>10.844979999999998</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="13"/>
+        <v>5.3401400000000008</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="14"/>
+        <v>8.1820200000000014</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="15"/>
+        <v>9.6743999999999986</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="16"/>
+        <v>23.634999999999998</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="17"/>
+        <v>1.7918457044825538E-8</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="18"/>
+        <v>5.2715048559457474E-7</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="19"/>
+        <v>5.775749819652391E-21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>790</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>13.0152</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="11"/>
+        <v>6.1434600000000019</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="12"/>
+        <v>11.035979999999999</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="13"/>
+        <v>5.4636400000000007</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="14"/>
+        <v>8.343020000000001</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="15"/>
+        <v>9.8133999999999997</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="16"/>
+        <v>23.997499999999999</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="17"/>
+        <v>6.7308648119277516E-9</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="18"/>
+        <v>2.7052178833834481E-7</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="19"/>
+        <v>1.4907300805218008E-21</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>795</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>13.202200000000001</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="11"/>
+        <v>6.3049600000000021</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="12"/>
+        <v>11.226979999999999</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="13"/>
+        <v>5.5871400000000007</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="14"/>
+        <v>8.5040200000000006</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="15"/>
+        <v>9.952399999999999</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="16"/>
+        <v>24.36</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="17"/>
+        <v>2.4632798183390629E-9</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="18"/>
+        <v>1.3672436680032647E-7</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="19"/>
+        <v>3.7739718193756742E-22</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>800</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>13.389200000000001</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="11"/>
+        <v>6.4664600000000023</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="12"/>
+        <v>11.417979999999998</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="13"/>
+        <v>5.7106400000000015</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="14"/>
+        <v>8.6650200000000002</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="15"/>
+        <v>10.0914</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="16"/>
+        <v>24.722499999999997</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="17"/>
+        <v>8.7827243453873452E-10</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="18"/>
+        <v>6.8055875263798003E-8</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="19"/>
+        <v>9.371460677751503E-23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>